--- a/results/Android9.0/Pandas Datasets/summary.xlsx
+++ b/results/Android9.0/Pandas Datasets/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\CPSC 601\android-np\results\Android9.0\Pandas Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{773DBFF7-6B4D-4B30-8C6E-55CBD1F2EB88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BBC71E-71E6-41DA-B86F-55751BBC9E9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{ADB776AB-6C66-492E-9A6F-A6B7524D7FE7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADB776AB-6C66-492E-9A6F-A6B7524D7FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Filename</t>
   </si>
@@ -524,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2BF019-0066-4FB5-89D6-0D1A7D108DEF}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,741 +644,741 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>1553154635.1034801</v>
+        <v>1553164819.77037</v>
       </c>
       <c r="C3">
-        <v>1553155529.9751301</v>
+        <v>1553165719.6231501</v>
       </c>
       <c r="D3">
-        <v>894.87165093421902</v>
+        <v>899.85277485847405</v>
       </c>
       <c r="E3">
-        <v>14.914527515570301</v>
+        <v>14.9975462476412</v>
       </c>
       <c r="F3">
-        <v>949</v>
+        <v>55562</v>
       </c>
       <c r="G3">
-        <v>517</v>
+        <v>51571</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="K3">
-        <v>144167</v>
+        <v>51743879</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>100858</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>82314</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>415075</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>1553164819.77037</v>
+        <v>1553148891.9916601</v>
       </c>
       <c r="C4">
-        <v>1553165719.6231501</v>
+        <v>1553149778.82406</v>
       </c>
       <c r="D4">
-        <v>899.85277485847405</v>
+        <v>886.83240008354096</v>
       </c>
       <c r="E4">
-        <v>14.9975462476412</v>
+        <v>14.7805400013923</v>
       </c>
       <c r="F4">
-        <v>55562</v>
+        <v>8456</v>
       </c>
       <c r="G4">
-        <v>51571</v>
+        <v>6757</v>
       </c>
       <c r="H4">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1298</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>51743879</v>
+        <v>5361573</v>
       </c>
       <c r="L4">
-        <v>100858</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>82314</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>415075</v>
+        <v>1542</v>
       </c>
       <c r="O4">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>1553148891.9916601</v>
+        <v>1553147959.36182</v>
       </c>
       <c r="C5">
-        <v>1553149778.82406</v>
+        <v>1553148845.73118</v>
       </c>
       <c r="D5">
-        <v>886.83240008354096</v>
+        <v>886.36936211585999</v>
       </c>
       <c r="E5">
-        <v>14.7805400013923</v>
+        <v>14.772822701931</v>
       </c>
       <c r="F5">
-        <v>8456</v>
+        <v>330</v>
       </c>
       <c r="G5">
-        <v>6757</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5361573</v>
+        <v>1540</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>1553147959.36182</v>
+        <v>1553163897.51601</v>
       </c>
       <c r="C6">
-        <v>1553148845.73118</v>
+        <v>1553164794.7400801</v>
       </c>
       <c r="D6">
-        <v>886.36936211585999</v>
+        <v>897.22407412528901</v>
       </c>
       <c r="E6">
-        <v>14.772822701931</v>
+        <v>14.9537345687548</v>
       </c>
       <c r="F6">
-        <v>330</v>
+        <v>6099</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>3733</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="K6">
-        <v>1540</v>
+        <v>3534760</v>
       </c>
       <c r="L6">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>233265</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>1553163897.51601</v>
+        <v>1553144249.47578</v>
       </c>
       <c r="C7">
-        <v>1553164794.7400801</v>
+        <v>1553145148.2442</v>
       </c>
       <c r="D7">
-        <v>897.22407412528901</v>
+        <v>898.76841783523503</v>
       </c>
       <c r="E7">
-        <v>14.9537345687548</v>
+        <v>14.979473630587201</v>
       </c>
       <c r="F7">
-        <v>6099</v>
+        <v>115395</v>
       </c>
       <c r="G7">
-        <v>3733</v>
+        <v>23524</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>4427</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="J7">
-        <v>815</v>
+        <v>334</v>
       </c>
       <c r="K7">
-        <v>3534760</v>
+        <v>20611722</v>
       </c>
       <c r="L7">
-        <v>427</v>
+        <v>2046133</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>97301</v>
       </c>
       <c r="N7">
-        <v>233265</v>
+        <v>74076</v>
       </c>
       <c r="O7">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>1553144249.47578</v>
+        <v>1553161138.44681</v>
       </c>
       <c r="C8">
-        <v>1553145148.2442</v>
+        <v>1553162032.11779</v>
       </c>
       <c r="D8">
-        <v>898.76841783523503</v>
+        <v>893.67098903655994</v>
       </c>
       <c r="E8">
-        <v>14.979473630587201</v>
+        <v>14.894516483942599</v>
       </c>
       <c r="F8">
-        <v>115395</v>
+        <v>25174</v>
       </c>
       <c r="G8">
-        <v>23524</v>
+        <v>24343</v>
       </c>
       <c r="H8">
-        <v>4427</v>
+        <v>232</v>
       </c>
       <c r="I8">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>334</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>20611722</v>
+        <v>22217202</v>
       </c>
       <c r="L8">
-        <v>2046133</v>
+        <v>135899</v>
       </c>
       <c r="M8">
-        <v>97301</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>74076</v>
+        <v>13646</v>
       </c>
       <c r="O8">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="P8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>1553161138.44681</v>
+        <v>1553151865.25947</v>
       </c>
       <c r="C9">
-        <v>1553162032.11779</v>
+        <v>1553152739.1491399</v>
       </c>
       <c r="D9">
-        <v>893.67098903655994</v>
+        <v>873.88966488838196</v>
       </c>
       <c r="E9">
-        <v>14.894516483942599</v>
+        <v>14.564827748139599</v>
       </c>
       <c r="F9">
-        <v>25174</v>
+        <v>71760</v>
       </c>
       <c r="G9">
-        <v>24343</v>
+        <v>55695</v>
       </c>
       <c r="H9">
-        <v>232</v>
+        <v>3688</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J9">
-        <v>51</v>
+        <v>3791</v>
       </c>
       <c r="K9">
-        <v>22217202</v>
+        <v>59297599</v>
       </c>
       <c r="L9">
-        <v>135899</v>
+        <v>1293987</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>148476</v>
       </c>
       <c r="N9">
-        <v>13646</v>
+        <v>1147246</v>
       </c>
       <c r="O9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>1553151865.25947</v>
+        <v>1553140549.97296</v>
       </c>
       <c r="C10">
-        <v>1553152739.1491399</v>
+        <v>1553141440.45012</v>
       </c>
       <c r="D10">
-        <v>873.88966488838196</v>
+        <v>890.47715783119202</v>
       </c>
       <c r="E10">
-        <v>14.564827748139599</v>
+        <v>14.841285963853201</v>
       </c>
       <c r="F10">
-        <v>71760</v>
+        <v>34991</v>
       </c>
       <c r="G10">
-        <v>55695</v>
+        <v>27496</v>
       </c>
       <c r="H10">
-        <v>3688</v>
+        <v>139</v>
       </c>
       <c r="I10">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="J10">
-        <v>3791</v>
+        <v>4005</v>
       </c>
       <c r="K10">
-        <v>59297599</v>
+        <v>26797068</v>
       </c>
       <c r="L10">
-        <v>1293987</v>
+        <v>60352</v>
       </c>
       <c r="M10">
-        <v>148476</v>
+        <v>795</v>
       </c>
       <c r="N10">
-        <v>1147246</v>
+        <v>4330013</v>
       </c>
       <c r="O10">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>1553140549.97296</v>
+        <v>1553158348.01964</v>
       </c>
       <c r="C11">
-        <v>1553141440.45012</v>
+        <v>1553159241.81234</v>
       </c>
       <c r="D11">
-        <v>890.47715783119202</v>
+        <v>893.79269814491204</v>
       </c>
       <c r="E11">
-        <v>14.841285963853201</v>
+        <v>14.8965449690818</v>
       </c>
       <c r="F11">
-        <v>34991</v>
+        <v>104596</v>
       </c>
       <c r="G11">
-        <v>27496</v>
+        <v>103446</v>
       </c>
       <c r="H11">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="J11">
-        <v>4005</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>26797068</v>
+        <v>128362304</v>
       </c>
       <c r="L11">
-        <v>60352</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>795</v>
+        <v>96561</v>
       </c>
       <c r="N11">
-        <v>4330013</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>1553158348.01964</v>
+        <v>1553166678.64136</v>
       </c>
       <c r="C12">
-        <v>1553159241.81234</v>
+        <v>1553167577.27824</v>
       </c>
       <c r="D12">
-        <v>893.79269814491204</v>
+        <v>898.63687896728504</v>
       </c>
       <c r="E12">
-        <v>14.8965449690818</v>
+        <v>14.977281316121401</v>
       </c>
       <c r="F12">
-        <v>104596</v>
+        <v>41085</v>
       </c>
       <c r="G12">
-        <v>103446</v>
+        <v>27504</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6303</v>
       </c>
       <c r="I12">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1729</v>
       </c>
       <c r="K12">
-        <v>128362304</v>
+        <v>23763574</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2701890</v>
       </c>
       <c r="M12">
-        <v>96561</v>
+        <v>101184</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>573721</v>
       </c>
       <c r="O12">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>1553166678.64136</v>
+        <v>1553150736.84461</v>
       </c>
       <c r="C13">
-        <v>1553167577.27824</v>
+        <v>1553151633.5840499</v>
       </c>
       <c r="D13">
-        <v>898.63687896728504</v>
+        <v>896.73943591117802</v>
       </c>
       <c r="E13">
-        <v>14.977281316121401</v>
+        <v>14.9456572651863</v>
       </c>
       <c r="F13">
-        <v>41085</v>
+        <v>1323</v>
       </c>
       <c r="G13">
-        <v>27504</v>
+        <v>805</v>
       </c>
       <c r="H13">
-        <v>6303</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1729</v>
+        <v>14</v>
       </c>
       <c r="K13">
-        <v>23763574</v>
+        <v>316735</v>
       </c>
       <c r="L13">
-        <v>2701890</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>101184</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>573721</v>
+        <v>3392</v>
       </c>
       <c r="O13">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="P13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>1553150736.84461</v>
+        <v>1553160206.79019</v>
       </c>
       <c r="C14">
-        <v>1553151633.5840499</v>
+        <v>1553161100.1725099</v>
       </c>
       <c r="D14">
-        <v>896.73943591117802</v>
+        <v>893.38231515884399</v>
       </c>
       <c r="E14">
-        <v>14.9456572651863</v>
+        <v>14.889705252647399</v>
       </c>
       <c r="F14">
-        <v>1323</v>
+        <v>2381</v>
       </c>
       <c r="G14">
-        <v>805</v>
+        <v>2186</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>316735</v>
+        <v>509492</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3837</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3392</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>1553160206.79019</v>
+        <v>1553143319.9393201</v>
       </c>
       <c r="C15">
-        <v>1553161100.1725099</v>
+        <v>1553144212.0761199</v>
       </c>
       <c r="D15">
-        <v>893.38231515884399</v>
+        <v>892.13680100440899</v>
       </c>
       <c r="E15">
-        <v>14.889705252647399</v>
+        <v>14.868946683406801</v>
       </c>
       <c r="F15">
-        <v>2381</v>
+        <v>13363</v>
       </c>
       <c r="G15">
-        <v>2186</v>
+        <v>4193</v>
       </c>
       <c r="H15">
-        <v>29</v>
+        <v>1600</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="K15">
-        <v>509492</v>
+        <v>2683027</v>
       </c>
       <c r="L15">
-        <v>3837</v>
+        <v>1009367</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>730851</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>467448</v>
       </c>
       <c r="O15">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>1553143319.9393201</v>
+        <v>1553152785.04182</v>
       </c>
       <c r="C16">
-        <v>1553144212.0761199</v>
+        <v>1553153684.98599</v>
       </c>
       <c r="D16">
-        <v>892.13680100440899</v>
+        <v>899.94417095184303</v>
       </c>
       <c r="E16">
-        <v>14.868946683406801</v>
+        <v>14.999069515864001</v>
       </c>
       <c r="F16">
-        <v>13363</v>
+        <v>17149</v>
       </c>
       <c r="G16">
-        <v>4193</v>
+        <v>12126</v>
       </c>
       <c r="H16">
-        <v>1600</v>
+        <v>147</v>
       </c>
       <c r="I16">
-        <v>1053</v>
+        <v>68</v>
       </c>
       <c r="J16">
-        <v>1082</v>
+        <v>3885</v>
       </c>
       <c r="K16">
-        <v>2683027</v>
+        <v>10098469</v>
       </c>
       <c r="L16">
-        <v>1009367</v>
+        <v>30193</v>
       </c>
       <c r="M16">
-        <v>730851</v>
+        <v>22240</v>
       </c>
       <c r="N16">
-        <v>467448</v>
+        <v>4353621</v>
       </c>
       <c r="O16">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -1386,849 +1386,796 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>1553152785.04182</v>
+        <v>1553167606.3681901</v>
       </c>
       <c r="C17">
-        <v>1553153684.98599</v>
+        <v>1553168506.3529501</v>
       </c>
       <c r="D17">
-        <v>899.94417095184303</v>
+        <v>899.98476195335297</v>
       </c>
       <c r="E17">
-        <v>14.999069515864001</v>
+        <v>14.9997460325558</v>
       </c>
       <c r="F17">
-        <v>17149</v>
+        <v>51319</v>
       </c>
       <c r="G17">
-        <v>12126</v>
+        <v>29025</v>
       </c>
       <c r="H17">
-        <v>147</v>
+        <v>4490</v>
       </c>
       <c r="I17">
-        <v>68</v>
+        <v>586</v>
       </c>
       <c r="J17">
-        <v>3885</v>
+        <v>2033</v>
       </c>
       <c r="K17">
-        <v>10098469</v>
+        <v>23530762</v>
       </c>
       <c r="L17">
-        <v>30193</v>
+        <v>2197153</v>
       </c>
       <c r="M17">
-        <v>22240</v>
+        <v>410949</v>
       </c>
       <c r="N17">
-        <v>4353621</v>
+        <v>619355</v>
       </c>
       <c r="O17">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18">
-        <v>1553167606.3681901</v>
+        <v>1553145173.2246499</v>
       </c>
       <c r="C18">
-        <v>1553168506.3529501</v>
+        <v>1553146073.51106</v>
       </c>
       <c r="D18">
-        <v>899.98476195335297</v>
+        <v>900.28640699386597</v>
       </c>
       <c r="E18">
-        <v>14.9997460325558</v>
+        <v>15.0047734498977</v>
       </c>
       <c r="F18">
-        <v>51319</v>
+        <v>19149</v>
       </c>
       <c r="G18">
-        <v>29025</v>
+        <v>9443</v>
       </c>
       <c r="H18">
-        <v>4490</v>
+        <v>3623</v>
       </c>
       <c r="I18">
-        <v>586</v>
+        <v>176</v>
       </c>
       <c r="J18">
-        <v>2033</v>
+        <v>841</v>
       </c>
       <c r="K18">
-        <v>23530762</v>
+        <v>4196090</v>
       </c>
       <c r="L18">
-        <v>2197153</v>
+        <v>1694650</v>
       </c>
       <c r="M18">
-        <v>410949</v>
+        <v>103711</v>
       </c>
       <c r="N18">
-        <v>619355</v>
+        <v>207233</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="P18">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>1553145173.2246499</v>
+        <v>1553146112.29971</v>
       </c>
       <c r="C19">
-        <v>1553146073.51106</v>
+        <v>1553147010.03139</v>
       </c>
       <c r="D19">
-        <v>900.28640699386597</v>
+        <v>897.73167419433503</v>
       </c>
       <c r="E19">
-        <v>15.0047734498977</v>
+        <v>14.962194569905501</v>
       </c>
       <c r="F19">
-        <v>19149</v>
+        <v>11555</v>
       </c>
       <c r="G19">
-        <v>9443</v>
+        <v>6653</v>
       </c>
       <c r="H19">
-        <v>3623</v>
+        <v>20</v>
       </c>
       <c r="I19">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>841</v>
+        <v>2369</v>
       </c>
       <c r="K19">
-        <v>4196090</v>
+        <v>5595226</v>
       </c>
       <c r="L19">
-        <v>1694650</v>
+        <v>1552</v>
       </c>
       <c r="M19">
-        <v>103711</v>
+        <v>295</v>
       </c>
       <c r="N19">
-        <v>207233</v>
+        <v>2865657</v>
       </c>
       <c r="O19">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20">
-        <v>1553146112.29971</v>
+        <v>1553141470.56038</v>
       </c>
       <c r="C20">
-        <v>1553147010.03139</v>
+        <v>1553142368.4410801</v>
       </c>
       <c r="D20">
-        <v>897.73167419433503</v>
+        <v>897.88069987297001</v>
       </c>
       <c r="E20">
-        <v>14.962194569905501</v>
+        <v>14.964678331216099</v>
       </c>
       <c r="F20">
-        <v>11555</v>
+        <v>10194</v>
       </c>
       <c r="G20">
-        <v>6653</v>
+        <v>7430</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>2369</v>
+        <v>644</v>
       </c>
       <c r="K20">
-        <v>5595226</v>
+        <v>7390527</v>
       </c>
       <c r="L20">
-        <v>1552</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2865657</v>
+        <v>179493</v>
       </c>
       <c r="O20">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>1553141470.56038</v>
+        <v>1553156494.24845</v>
       </c>
       <c r="C21">
-        <v>1553142368.4410801</v>
+        <v>1553157393.1187501</v>
       </c>
       <c r="D21">
-        <v>897.88069987297001</v>
+        <v>898.87030386924698</v>
       </c>
       <c r="E21">
-        <v>14.964678331216099</v>
+        <v>14.981171731154101</v>
       </c>
       <c r="F21">
-        <v>10194</v>
+        <v>7687</v>
       </c>
       <c r="G21">
-        <v>7430</v>
+        <v>6063</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J21">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="K21">
-        <v>7390527</v>
+        <v>4922294</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>33238</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>90836</v>
       </c>
       <c r="N21">
-        <v>179493</v>
+        <v>196696</v>
       </c>
       <c r="O21">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>1553156494.24845</v>
+        <v>1553165747.4928701</v>
       </c>
       <c r="C22">
-        <v>1553157393.1187501</v>
+        <v>1553166642.9093599</v>
       </c>
       <c r="D22">
-        <v>898.87030386924698</v>
+        <v>895.41649103164605</v>
       </c>
       <c r="E22">
-        <v>14.981171731154101</v>
+        <v>14.923608183860701</v>
       </c>
       <c r="F22">
-        <v>7687</v>
+        <v>51872</v>
       </c>
       <c r="G22">
-        <v>6063</v>
+        <v>37550</v>
       </c>
       <c r="H22">
-        <v>160</v>
+        <v>7013</v>
       </c>
       <c r="I22">
-        <v>126</v>
+        <v>343</v>
       </c>
       <c r="J22">
-        <v>679</v>
+        <v>2037</v>
       </c>
       <c r="K22">
-        <v>4922294</v>
+        <v>34130024</v>
       </c>
       <c r="L22">
-        <v>33238</v>
+        <v>3285854</v>
       </c>
       <c r="M22">
-        <v>90836</v>
+        <v>194701</v>
       </c>
       <c r="N22">
-        <v>196696</v>
+        <v>586105</v>
       </c>
       <c r="O22">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23">
-        <v>1553165747.4928701</v>
+        <v>1553149813.35553</v>
       </c>
       <c r="C23">
-        <v>1553166642.9093599</v>
+        <v>1553150712.6005499</v>
       </c>
       <c r="D23">
-        <v>895.41649103164605</v>
+        <v>899.24502110481205</v>
       </c>
       <c r="E23">
-        <v>14.923608183860701</v>
+        <v>14.987417018413501</v>
       </c>
       <c r="F23">
-        <v>51872</v>
+        <v>9395</v>
       </c>
       <c r="G23">
-        <v>37550</v>
+        <v>9258</v>
       </c>
       <c r="H23">
-        <v>7013</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>2037</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>34130024</v>
+        <v>3901970</v>
       </c>
       <c r="L23">
-        <v>3285854</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>194701</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>586105</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>1553149813.35553</v>
+        <v>1553162053.78635</v>
       </c>
       <c r="C24">
-        <v>1553150712.6005499</v>
+        <v>1553162951.60393</v>
       </c>
       <c r="D24">
-        <v>899.24502110481205</v>
+        <v>897.81758904457001</v>
       </c>
       <c r="E24">
-        <v>14.987417018413501</v>
+        <v>14.9636264840761</v>
       </c>
       <c r="F24">
-        <v>9395</v>
+        <v>55833</v>
       </c>
       <c r="G24">
-        <v>9258</v>
+        <v>52904</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1578</v>
       </c>
       <c r="K24">
-        <v>3901970</v>
+        <v>53979966</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>55915</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>29687</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>479312</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>1553162053.78635</v>
+        <v>1553153707.6174099</v>
       </c>
       <c r="C25">
-        <v>1553162951.60393</v>
+        <v>1553154604.1045599</v>
       </c>
       <c r="D25">
-        <v>897.81758904457001</v>
+        <v>896.487144947052</v>
       </c>
       <c r="E25">
-        <v>14.9636264840761</v>
+        <v>14.9414524157842</v>
       </c>
       <c r="F25">
-        <v>55833</v>
+        <v>51295</v>
       </c>
       <c r="G25">
-        <v>52904</v>
+        <v>36539</v>
       </c>
       <c r="H25">
-        <v>236</v>
+        <v>2954</v>
       </c>
       <c r="I25">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="J25">
-        <v>1578</v>
+        <v>7002</v>
       </c>
       <c r="K25">
-        <v>53979966</v>
+        <v>36545424</v>
       </c>
       <c r="L25">
-        <v>55915</v>
+        <v>1258101</v>
       </c>
       <c r="M25">
-        <v>29687</v>
+        <v>94891</v>
       </c>
       <c r="N25">
-        <v>479312</v>
+        <v>6321606</v>
       </c>
       <c r="O25">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26">
-        <v>1553153707.6174099</v>
+        <v>1553155569.2058699</v>
       </c>
       <c r="C26">
-        <v>1553154604.1045599</v>
+        <v>1553156433.2469101</v>
       </c>
       <c r="D26">
-        <v>896.487144947052</v>
+        <v>864.04104304313603</v>
       </c>
       <c r="E26">
-        <v>14.9414524157842</v>
+        <v>14.400684050718899</v>
       </c>
       <c r="F26">
-        <v>51295</v>
+        <v>150668</v>
       </c>
       <c r="G26">
-        <v>36539</v>
+        <v>11554</v>
       </c>
       <c r="H26">
-        <v>2954</v>
+        <v>21</v>
       </c>
       <c r="I26">
-        <v>185</v>
+        <v>138286</v>
       </c>
       <c r="J26">
-        <v>7002</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>36545424</v>
+        <v>11783734</v>
       </c>
       <c r="L26">
-        <v>1258101</v>
+        <v>6450</v>
       </c>
       <c r="M26">
-        <v>94891</v>
+        <v>170599353</v>
       </c>
       <c r="N26">
-        <v>6321606</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P26">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27">
-        <v>1553155569.2058699</v>
+        <v>1553157419.4427199</v>
       </c>
       <c r="C27">
-        <v>1553156433.2469101</v>
+        <v>1553158303.5186801</v>
       </c>
       <c r="D27">
-        <v>864.04104304313603</v>
+        <v>884.07595896720795</v>
       </c>
       <c r="E27">
-        <v>14.400684050718899</v>
+        <v>14.7345993161201</v>
       </c>
       <c r="F27">
-        <v>150668</v>
+        <v>10227</v>
       </c>
       <c r="G27">
-        <v>11554</v>
+        <v>8375</v>
       </c>
       <c r="H27">
+        <v>378</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>741</v>
+      </c>
+      <c r="K27">
+        <v>8510948</v>
+      </c>
+      <c r="L27">
+        <v>78880</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>265777</v>
+      </c>
+      <c r="O27">
         <v>21</v>
       </c>
-      <c r="I27">
-        <v>138286</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>11783734</v>
-      </c>
-      <c r="L27">
-        <v>6450</v>
-      </c>
-      <c r="M27">
-        <v>170599353</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>30</v>
-      </c>
       <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28">
-        <v>1553157419.4427199</v>
+        <v>1553162976.51649</v>
       </c>
       <c r="C28">
-        <v>1553158303.5186801</v>
+        <v>1553163876.4110501</v>
       </c>
       <c r="D28">
-        <v>884.07595896720795</v>
+        <v>899.89456105232205</v>
       </c>
       <c r="E28">
-        <v>14.7345993161201</v>
+        <v>14.9982426842053</v>
       </c>
       <c r="F28">
-        <v>10227</v>
+        <v>34237</v>
       </c>
       <c r="G28">
-        <v>8375</v>
+        <v>19775</v>
       </c>
       <c r="H28">
-        <v>378</v>
+        <v>1797</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J28">
-        <v>741</v>
+        <v>11987</v>
       </c>
       <c r="K28">
-        <v>8510948</v>
+        <v>16624667</v>
       </c>
       <c r="L28">
-        <v>78880</v>
+        <v>639760</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="N28">
-        <v>265777</v>
+        <v>11399206</v>
       </c>
       <c r="O28">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <v>1553162976.51649</v>
+        <v>1553142392.21544</v>
       </c>
       <c r="C29">
-        <v>1553163876.4110501</v>
+        <v>1553143288.83814</v>
       </c>
       <c r="D29">
-        <v>899.89456105232205</v>
+        <v>896.62270092964104</v>
       </c>
       <c r="E29">
-        <v>14.9982426842053</v>
+        <v>14.9437116821606</v>
       </c>
       <c r="F29">
-        <v>34237</v>
+        <v>1413</v>
       </c>
       <c r="G29">
-        <v>19775</v>
+        <v>343</v>
       </c>
       <c r="H29">
-        <v>1797</v>
+        <v>44</v>
       </c>
       <c r="I29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>11987</v>
+        <v>702</v>
       </c>
       <c r="K29">
-        <v>16624667</v>
+        <v>76314</v>
       </c>
       <c r="L29">
-        <v>639760</v>
+        <v>11052</v>
       </c>
       <c r="M29">
-        <v>915</v>
+        <v>361</v>
       </c>
       <c r="N29">
-        <v>11399206</v>
+        <v>179988</v>
       </c>
       <c r="O29">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="P29">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30">
-        <v>1553142392.21544</v>
+        <v>1553147040.07446</v>
       </c>
       <c r="C30">
-        <v>1553143288.83814</v>
+        <v>1553147931.8708701</v>
       </c>
       <c r="D30">
-        <v>896.62270092964104</v>
+        <v>891.79640889167695</v>
       </c>
       <c r="E30">
-        <v>14.9437116821606</v>
+        <v>14.8632734815279</v>
       </c>
       <c r="F30">
-        <v>1413</v>
+        <v>360</v>
       </c>
       <c r="G30">
-        <v>343</v>
+        <v>125</v>
       </c>
       <c r="H30">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>702</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>76314</v>
+        <v>25063</v>
       </c>
       <c r="L30">
-        <v>11052</v>
+        <v>193</v>
       </c>
       <c r="M30">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>179988</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31">
-        <v>1553147040.07446</v>
+        <v>1553159277.21049</v>
       </c>
       <c r="C31">
-        <v>1553147931.8708701</v>
+        <v>1553160168.1626999</v>
       </c>
       <c r="D31">
-        <v>891.79640889167695</v>
+        <v>890.95220708847</v>
       </c>
       <c r="E31">
-        <v>14.8632734815279</v>
+        <v>14.8492034514745</v>
       </c>
       <c r="F31">
-        <v>360</v>
+        <v>25205</v>
       </c>
       <c r="G31">
-        <v>125</v>
+        <v>23118</v>
       </c>
       <c r="H31">
+        <v>362</v>
+      </c>
+      <c r="I31">
+        <v>130</v>
+      </c>
+      <c r="J31">
+        <v>920</v>
+      </c>
+      <c r="K31">
+        <v>24220912</v>
+      </c>
+      <c r="L31">
+        <v>339247</v>
+      </c>
+      <c r="M31">
+        <v>91113</v>
+      </c>
+      <c r="N31">
+        <v>1044567</v>
+      </c>
+      <c r="O31">
+        <v>28</v>
+      </c>
+      <c r="P31">
         <v>3</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>25063</v>
-      </c>
-      <c r="L31">
-        <v>193</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>7</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
       <c r="Q31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32">
-        <v>1553159277.21049</v>
-      </c>
-      <c r="C32">
-        <v>1553160168.1626999</v>
-      </c>
-      <c r="D32">
-        <v>890.95220708847</v>
-      </c>
-      <c r="E32">
-        <v>14.8492034514745</v>
-      </c>
-      <c r="F32">
-        <v>25205</v>
-      </c>
-      <c r="G32">
-        <v>23118</v>
-      </c>
-      <c r="H32">
-        <v>362</v>
-      </c>
-      <c r="I32">
-        <v>130</v>
-      </c>
-      <c r="J32">
-        <v>920</v>
-      </c>
-      <c r="K32">
-        <v>24220912</v>
-      </c>
-      <c r="L32">
-        <v>339247</v>
-      </c>
-      <c r="M32">
-        <v>91113</v>
-      </c>
-      <c r="N32">
-        <v>1044567</v>
-      </c>
-      <c r="O32">
-        <v>28</v>
-      </c>
-      <c r="P32">
-        <v>3</v>
-      </c>
-      <c r="Q32">
         <v>2</v>
       </c>
     </row>
